--- a/text/機能設計書_データアクセス.xlsx
+++ b/text/機能設計書_データアクセス.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9304592A-F028-48CA-A19A-DBED9DA36FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB037E-AE7E-4680-948E-5D27D65A93E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="109">
   <si>
     <t>番号</t>
   </si>
@@ -60,16 +60,7 @@
     <t>実装者</t>
   </si>
   <si>
-    <t>DA1001</t>
-  </si>
-  <si>
-    <t>購入依頼登録</t>
-  </si>
-  <si>
     <t>BuyRequestDao.xml</t>
-  </si>
-  <si>
-    <t>requestRegist</t>
   </si>
   <si>
     <t>資材DTO</t>
@@ -100,15 +91,6 @@
 備考　＝　資材DTO.備考</t>
   </si>
   <si>
-    <t>DA1002</t>
-  </si>
-  <si>
-    <t>カテゴリ取得</t>
-  </si>
-  <si>
-    <t>getCategory</t>
-  </si>
-  <si>
     <t>カテゴリDTOリスト</t>
   </si>
   <si>
@@ -120,60 +102,12 @@
 　　なし</t>
   </si>
   <si>
-    <t>DA1003</t>
-  </si>
-  <si>
-    <t>ユーザ別購入依頼リスト</t>
-  </si>
-  <si>
-    <t>getUserRequsetList</t>
-  </si>
-  <si>
     <t>String 開始日付
 String 終了日付
 String ユーザID</t>
   </si>
   <si>
     <t>資材DTOリスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">抽出項目：
-S.資材ID
-S.資材名
-S.数量
-S.カテゴリID
-C.カテゴリ名(別名:category_name)
-S.購入依頼者ID、
-U.ユーザ名(別名：request_user_name)
-S.購入依頼部署
-D.部署名(別名：request_dept_name)、
-S.状態区分
-STA.状態名(別名：status_name)
-S.依頼日(to_char関数により、'yyyy-mm-dd'フォーマットの文字型に変換)
-S.備考
-抽出元：
-S 内部結合 C 結合条件：S.カテゴリID ＝ C.カテゴリID
-内部結合 U 結合条件：S.購入依頼者ID ＝ U.ユーザID
-内部結語 D 結合条件：S.購入依頼部署 ＝ D.部署ID
-内部結語 STA 結合条件：S.状態区分 ＝ STA.状態コード
-※
-資材マスタ S
-資材カテゴリ C
-ユーザマスタ U
-部署マスタ D
-状態マスタ STA
-抽出条件：
-①S.依頼日 between 引数.開始日付 and 引数.終了日付
-AND
-②S.購入依頼者ID = 引数.ユーザID
-※引数の「開始日付」、「終了日付」について、to_date関数により、
-'YYYY-MM-DD HH24:MI:SS'フォーマットの日付型に変換する必要がある。
-ソート順
-S.依頼日、S.資材ID  昇順
-</t>
-  </si>
-  <si>
-    <t>DA1004</t>
   </si>
   <si>
     <t>購入依頼一件取得</t>
@@ -214,15 +148,6 @@
 S.資材ID ＝ 引数.資材ID</t>
   </si>
   <si>
-    <t>DA1005</t>
-  </si>
-  <si>
-    <t>購入依頼変更</t>
-  </si>
-  <si>
-    <t>modifyRequest</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -239,15 +164,6 @@
 ①資材ID　＝　資材DTO.資材ID
 AND
 ②状態区分 は　'1'(登録済)　または　'3'(却下)</t>
-  </si>
-  <si>
-    <t>DA1006</t>
-  </si>
-  <si>
-    <t>購入依頼削除</t>
-  </si>
-  <si>
-    <t>deleteById</t>
   </si>
   <si>
     <t>int 資材ID</t>
@@ -740,6 +656,115 @@
   </si>
   <si>
     <t>BuyRequestDao.xml</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入依頼登録</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>requestRegist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA1003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getUserRequsetList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ別購入依頼リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA1001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA1002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリ取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getCategory</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA1004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入依頼一件取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getRequestById</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA1005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入依頼変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>modifyRequest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA1006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入依頼削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>deleteById</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">抽出項目：
+S.資材ID
+S.資材名
+S.数量
+S.カテゴリID
+C.カテゴリ名(別名:category_name)
+S.購入依頼者ID、
+U.ユーザ名(別名：request_user_name)
+S.購入依頼部署
+D.部署名(別名：request_dept_name)、
+S.状態区分
+STA.状態名(別名：status_name)
+S.依頼日(to_char関数により、'yyyy-mm-dd'フォーマットの文字型に変換)
+S.備考
+抽出元：
+S 内部結合 C 結合条件：S.カテゴリID ＝ C.カテゴリID
+内部結合 U 結合条件：S.購入依頼者ID ＝ U.ユーザID
+内部結合 D 結合条件：S.購入依頼部署 ＝ D.部署ID
+内部結合 STA 結合条件：S.状態区分 ＝ STA.状態コード
+※
+資材マスタ S
+資材カテゴリ C
+ユーザマスタ U
+部署マスタ D
+状態マスタ STA
+抽出条件：
+①S.依頼日 between 引数.開始日付 and 引数.終了日付
+AND
+②S.購入依頼者ID = 引数.ユーザID
+※引数の「開始日付」、「終了日付」について、to_date関数により、
+'YYYY-MM-DD HH24:MI:SS'フォーマットの日付型に変換する必要がある。
+ソート順
+S.依頼日、S.資材ID  昇順
+</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1212,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C126" activeCellId="5" sqref="C2 C24 C34 C74 C107 C126"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1246,29 +1271,29 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1279,7 +1304,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1472,29 +1497,29 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1505,7 +1530,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1590,29 +1615,29 @@
     </row>
     <row r="34" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1623,7 +1648,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="9" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1965,9 +1990,7 @@
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
         <v>4</v>
       </c>
@@ -1978,29 +2001,29 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2011,7 +2034,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2303,29 +2326,29 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -2336,7 +2359,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -2501,30 +2524,30 @@
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
-        <v>36</v>
+      <c r="A126" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G126" s="7"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
+      <c r="A127" s="11"/>
       <c r="B127" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -2533,9 +2556,9 @@
       <c r="G127" s="7"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="6"/>
+      <c r="A128" s="11"/>
       <c r="B128" s="9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -2544,7 +2567,7 @@
       <c r="G128" s="7"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="6"/>
+      <c r="A129" s="11"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
@@ -2553,7 +2576,7 @@
       <c r="G129" s="7"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
+      <c r="A130" s="11"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -2562,7 +2585,7 @@
       <c r="G130" s="7"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
+      <c r="A131" s="11"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -2571,7 +2594,7 @@
       <c r="G131" s="7"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="6"/>
+      <c r="A132" s="11"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -2580,7 +2603,7 @@
       <c r="G132" s="7"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="6"/>
+      <c r="A133" s="11"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -2589,7 +2612,7 @@
       <c r="G133" s="7"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="6"/>
+      <c r="A134" s="11"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -2598,7 +2621,7 @@
       <c r="G134" s="7"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="6"/>
+      <c r="A135" s="11"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -2608,6 +2631,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="G107:G124"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F124"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="G126:G135"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F135"/>
+    <mergeCell ref="A34:A72"/>
+    <mergeCell ref="G34:G72"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F72"/>
+    <mergeCell ref="A74:A105"/>
+    <mergeCell ref="G74:G105"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F105"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="G2:G22"/>
     <mergeCell ref="B3:F3"/>
@@ -2616,22 +2655,6 @@
     <mergeCell ref="G24:G32"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F32"/>
-    <mergeCell ref="A34:A72"/>
-    <mergeCell ref="G34:G72"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F72"/>
-    <mergeCell ref="A74:A105"/>
-    <mergeCell ref="G74:G105"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F105"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="G107:G124"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F124"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="G126:G135"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F135"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2679,31 +2702,31 @@
     </row>
     <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2714,7 +2737,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3071,31 +3094,31 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3106,7 +3129,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -3400,31 +3423,31 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3435,7 +3458,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="9" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -3558,31 +3581,31 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3593,7 +3616,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="9" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -3693,6 +3716,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:A87"/>
+    <mergeCell ref="G75:G87"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F87"/>
+    <mergeCell ref="A89:A101"/>
+    <mergeCell ref="G89:G101"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F101"/>
     <mergeCell ref="A2:A40"/>
     <mergeCell ref="G2:G40"/>
     <mergeCell ref="B3:F3"/>
@@ -3701,14 +3732,6 @@
     <mergeCell ref="G42:G73"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:F73"/>
-    <mergeCell ref="A75:A87"/>
-    <mergeCell ref="G75:G87"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F87"/>
-    <mergeCell ref="A89:A101"/>
-    <mergeCell ref="G89:G101"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F101"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3755,31 +3778,31 @@
     </row>
     <row r="2" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3790,7 +3813,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3877,31 +3900,31 @@
     </row>
     <row r="12" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3912,7 +3935,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -4296,31 +4319,31 @@
     </row>
     <row r="55" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -4331,7 +4354,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="9" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4715,31 +4738,31 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -4750,7 +4773,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -4873,31 +4896,31 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -4908,7 +4931,7 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="9" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -5008,14 +5031,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F10"/>
-    <mergeCell ref="A12:A53"/>
-    <mergeCell ref="G12:G53"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F53"/>
     <mergeCell ref="A112:A124"/>
     <mergeCell ref="G112:G124"/>
     <mergeCell ref="B113:F113"/>
@@ -5028,6 +5043,14 @@
     <mergeCell ref="G98:G110"/>
     <mergeCell ref="B99:F99"/>
     <mergeCell ref="B100:F110"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F10"/>
+    <mergeCell ref="A12:A53"/>
+    <mergeCell ref="G12:G53"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5073,31 +5096,31 @@
     </row>
     <row r="2" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -5108,7 +5131,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5474,31 +5497,31 @@
     </row>
     <row r="43" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -5509,7 +5532,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="9" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -5596,31 +5619,31 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -5631,7 +5654,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -5772,31 +5795,31 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -5807,7 +5830,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -5925,6 +5948,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="G53:G67"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F67"/>
+    <mergeCell ref="A69:A83"/>
+    <mergeCell ref="G69:G83"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F83"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="G2:G41"/>
     <mergeCell ref="B3:F3"/>
@@ -5933,14 +5964,6 @@
     <mergeCell ref="G43:G51"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B45:F51"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="G53:G67"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F67"/>
-    <mergeCell ref="A69:A83"/>
-    <mergeCell ref="G69:G83"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F83"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text/機能設計書_データアクセス.xlsx
+++ b/text/機能設計書_データアクセス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB037E-AE7E-4680-948E-5D27D65A93E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6573B2E5-3D93-4A90-A7A2-834E27B1E628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="110">
   <si>
     <t>番号</t>
   </si>
@@ -70,25 +70,6 @@
   </si>
   <si>
     <t>ロジック</t>
-  </si>
-  <si>
-    <t>挿入対象テーブル：
-資材マスタ
-値設定：
-資材ID　＝　id_seq.nextval
-資材名　＝　資材DTO.資材名
-数量　＝　資材DTO.数量
-倉庫ID　＝　NULL
-カテゴリID　＝　資材DTO.カテゴリID
-購入依頼者ID　＝　資材DTO.購入依頼者ID
-購入依頼部門　＝　資材DTO.購入依頼部門
-状態区分　＝　'1'(登録済)
-依頼日　＝　sysdate
-発注日　＝　NULL
-納品日　＝　NULL
-入庫日　＝　NULL
-出庫日　＝　NULL
-備考　＝　資材DTO.備考</t>
   </si>
   <si>
     <t>カテゴリDTOリスト</t>
@@ -767,6 +748,56 @@
 </t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>挿入対象テーブル：
+資材マスタ
+値設定：
+資材ID　＝　id_seq.nextval
+資材名　＝　資材DTO.資材名
+数量　＝　資材DTO.数量
+倉庫ID　＝　NULL
+カテゴリID　＝　資材DTO.カテゴリID
+購入依頼者ID　＝　資材DTO.購入依頼者ID
+購入依頼部門　＝　資材DTO.購入依頼部門
+状態区分　＝　'1'(登録済)
+依頼日　＝　sysdate
+発注日　＝　NULL
+納品日　＝　NULL
+入庫日　＝　NULL
+出庫日　＝　NULL
+備考　＝　資材DTO.備考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抽出項目：
+S.資材ID
+S.資材名
+S.数量
+S.カテゴリID
+C.カテゴリ名(別名:category_name)
+S.購入依頼者ID、
+U.ユーザ名(別名：request_user_name)
+S.購入依頼部署
+D.部署名(別名：request_dept_name)、
+S.状態区分
+STA.状態名(別名：status_name)
+S.依頼日(to_char関数により、'yyyy-mm-dd'フォーマットの文字型に変換)
+S.備考
+抽出元：
+S 内部結合 C 結合条件：S.カテゴリID ＝ C.カテゴリID
+内部結合 U 結合条件：S.購入依頼者ID ＝ U.ユーザID
+内部結語 D 結合条件：S.購入依頼部署 ＝ D.部署ID
+内部結語 STA 結合条件：S.状態区分 ＝ STA.状態コード
+※
+資材マスタ S
+資材カテゴリ C
+ユーザマスタ U
+部署マスタ D
+状態マスタ STA
+抽出条件：
+S.資材ID ＝ 引数.資材ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -838,7 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126:A135"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1270,17 +1301,17 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>95</v>
+      <c r="A2" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1291,7 +1322,7 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1302,9 +1333,9 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1313,7 +1344,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -1322,7 +1353,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1331,7 +1362,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1340,7 +1371,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1349,7 +1380,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1358,7 +1389,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1367,7 +1398,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1376,7 +1407,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1385,7 +1416,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1394,7 +1425,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1403,7 +1434,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1412,7 +1443,7 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1421,7 +1452,7 @@
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1430,7 +1461,7 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1439,7 +1470,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1448,7 +1479,7 @@
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1457,7 +1488,7 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1466,7 +1497,7 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1496,28 +1527,28 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1528,9 +1559,9 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1539,7 +1570,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1548,7 +1579,7 @@
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1557,7 +1588,7 @@
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1566,7 +1597,7 @@
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1575,7 +1606,7 @@
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1584,7 +1615,7 @@
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1615,22 +1646,22 @@
     </row>
     <row r="34" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -1648,7 +1679,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -2000,20 +2031,20 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>8</v>
@@ -2021,7 +2052,7 @@
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -2032,9 +2063,9 @@
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="9" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2043,7 +2074,7 @@
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -2052,7 +2083,7 @@
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -2061,7 +2092,7 @@
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -2070,7 +2101,7 @@
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -2079,7 +2110,7 @@
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -2088,7 +2119,7 @@
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -2097,7 +2128,7 @@
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="9"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -2106,7 +2137,7 @@
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -2115,7 +2146,7 @@
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -2124,7 +2155,7 @@
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -2133,7 +2164,7 @@
       <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -2142,7 +2173,7 @@
       <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="9"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -2151,7 +2182,7 @@
       <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="9"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -2160,7 +2191,7 @@
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -2169,7 +2200,7 @@
       <c r="G90" s="7"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="9"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -2178,7 +2209,7 @@
       <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -2187,7 +2218,7 @@
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
+      <c r="A93" s="11"/>
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -2196,7 +2227,7 @@
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
+      <c r="A94" s="11"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -2205,7 +2236,7 @@
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
+      <c r="A95" s="11"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -2214,7 +2245,7 @@
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
+      <c r="A96" s="11"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -2223,7 +2254,7 @@
       <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
+      <c r="A97" s="11"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -2232,7 +2263,7 @@
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
+      <c r="A98" s="11"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -2241,7 +2272,7 @@
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
+      <c r="A99" s="11"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -2250,7 +2281,7 @@
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
+      <c r="A100" s="11"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -2259,7 +2290,7 @@
       <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
+      <c r="A101" s="11"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -2268,7 +2299,7 @@
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
+      <c r="A102" s="11"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -2277,7 +2308,7 @@
       <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
+      <c r="A103" s="11"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -2286,7 +2317,7 @@
       <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
+      <c r="A104" s="11"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -2295,7 +2326,7 @@
       <c r="G104" s="7"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
+      <c r="A105" s="11"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -2325,28 +2356,28 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
+      <c r="A108" s="11"/>
       <c r="B108" s="8" t="s">
         <v>10</v>
       </c>
@@ -2357,9 +2388,9 @@
       <c r="G108" s="7"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
+      <c r="A109" s="11"/>
       <c r="B109" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -2368,7 +2399,7 @@
       <c r="G109" s="7"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
+      <c r="A110" s="11"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -2377,7 +2408,7 @@
       <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
+      <c r="A111" s="11"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -2386,7 +2417,7 @@
       <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="6"/>
+      <c r="A112" s="11"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -2395,7 +2426,7 @@
       <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
+      <c r="A113" s="11"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -2404,7 +2435,7 @@
       <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
+      <c r="A114" s="11"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -2413,7 +2444,7 @@
       <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="6"/>
+      <c r="A115" s="11"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -2422,7 +2453,7 @@
       <c r="G115" s="7"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
+      <c r="A116" s="11"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -2431,7 +2462,7 @@
       <c r="G116" s="7"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
+      <c r="A117" s="11"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -2440,7 +2471,7 @@
       <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="6"/>
+      <c r="A118" s="11"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -2449,7 +2480,7 @@
       <c r="G118" s="7"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
+      <c r="A119" s="11"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -2458,7 +2489,7 @@
       <c r="G119" s="7"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="6"/>
+      <c r="A120" s="11"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -2467,7 +2498,7 @@
       <c r="G120" s="7"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="6"/>
+      <c r="A121" s="11"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -2476,7 +2507,7 @@
       <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="6"/>
+      <c r="A122" s="11"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
@@ -2485,7 +2516,7 @@
       <c r="G122" s="7"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="6"/>
+      <c r="A123" s="11"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -2494,7 +2525,7 @@
       <c r="G123" s="7"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="6"/>
+      <c r="A124" s="11"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -2525,22 +2556,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G126" s="7"/>
     </row>
@@ -2558,7 +2589,7 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="11"/>
       <c r="B128" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -2631,6 +2662,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="G2:G22"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F22"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="G24:G32"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F32"/>
+    <mergeCell ref="A34:A72"/>
+    <mergeCell ref="G34:G72"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F72"/>
+    <mergeCell ref="A74:A105"/>
+    <mergeCell ref="G74:G105"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F105"/>
     <mergeCell ref="A107:A124"/>
     <mergeCell ref="G107:G124"/>
     <mergeCell ref="B108:F108"/>
@@ -2639,22 +2686,6 @@
     <mergeCell ref="G126:G135"/>
     <mergeCell ref="B127:F127"/>
     <mergeCell ref="B128:F135"/>
-    <mergeCell ref="A34:A72"/>
-    <mergeCell ref="G34:G72"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F72"/>
-    <mergeCell ref="A74:A105"/>
-    <mergeCell ref="G74:G105"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F105"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="G2:G22"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F22"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2702,25 +2733,25 @@
     </row>
     <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2737,7 +2768,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3094,25 +3125,25 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3129,7 +3160,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -3423,25 +3454,25 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3458,7 +3489,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -3581,25 +3612,25 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3616,7 +3647,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -3716,6 +3747,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="G2:G40"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F40"/>
+    <mergeCell ref="A42:A73"/>
+    <mergeCell ref="G42:G73"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F73"/>
     <mergeCell ref="A75:A87"/>
     <mergeCell ref="G75:G87"/>
     <mergeCell ref="B76:F76"/>
@@ -3724,14 +3763,6 @@
     <mergeCell ref="G89:G101"/>
     <mergeCell ref="B90:F90"/>
     <mergeCell ref="B91:F101"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="G2:G40"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F40"/>
-    <mergeCell ref="A42:A73"/>
-    <mergeCell ref="G42:G73"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F73"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3778,25 +3809,25 @@
     </row>
     <row r="2" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3813,7 +3844,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3900,25 +3931,25 @@
     </row>
     <row r="12" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3935,7 +3966,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -4319,25 +4350,25 @@
     </row>
     <row r="55" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4354,7 +4385,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4738,25 +4769,25 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -4773,7 +4804,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -4896,25 +4927,25 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4931,7 +4962,7 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -5031,6 +5062,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F10"/>
+    <mergeCell ref="A12:A53"/>
+    <mergeCell ref="G12:G53"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F53"/>
     <mergeCell ref="A112:A124"/>
     <mergeCell ref="G112:G124"/>
     <mergeCell ref="B113:F113"/>
@@ -5043,14 +5082,6 @@
     <mergeCell ref="G98:G110"/>
     <mergeCell ref="B99:F99"/>
     <mergeCell ref="B100:F110"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F10"/>
-    <mergeCell ref="A12:A53"/>
-    <mergeCell ref="G12:G53"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5096,25 +5127,25 @@
     </row>
     <row r="2" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5131,7 +5162,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5497,25 +5528,25 @@
     </row>
     <row r="43" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -5532,7 +5563,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -5619,25 +5650,25 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -5654,7 +5685,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -5795,25 +5826,25 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5830,7 +5861,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -5948,6 +5979,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="G2:G41"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F41"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="G43:G51"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F51"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="G53:G67"/>
     <mergeCell ref="B54:F54"/>
@@ -5956,14 +5995,6 @@
     <mergeCell ref="G69:G83"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F83"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="G2:G41"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F41"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="G43:G51"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F51"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text/機能設計書_データアクセス.xlsx
+++ b/text/機能設計書_データアクセス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiao/Desktop/java/git-demo/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6573B2E5-3D93-4A90-A7A2-834E27B1E628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4220AC-D38C-C147-8511-66A9B0230012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20920" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DA定義_購入依頼" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="108">
   <si>
     <t>番号</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>資材DTOリスト</t>
-  </si>
-  <si>
-    <t>購入依頼一件取得</t>
-  </si>
-  <si>
-    <t>getRequestById</t>
   </si>
   <si>
     <t>int　資材ID</t>
@@ -159,18 +153,6 @@
 ①資材ID　＝　引数.資材ID
 AND
 ②状態区分 は　'1'(登録済)　または　'3'(却下)</t>
-  </si>
-  <si>
-    <t>DA2001</t>
-  </si>
-  <si>
-    <t>部門別購入依頼一覧</t>
-  </si>
-  <si>
-    <t>BuyApprovalDao.xml</t>
-  </si>
-  <si>
-    <t>getDeptRequsetList</t>
   </si>
   <si>
     <t>String 開始日付
@@ -219,18 +201,6 @@
 S.依頼日、S.資材ID  昇順</t>
   </si>
   <si>
-    <t>DA2002</t>
-  </si>
-  <si>
-    <t>DA2003</t>
-  </si>
-  <si>
-    <t>承認実行</t>
-  </si>
-  <si>
-    <t>approval</t>
-  </si>
-  <si>
     <t>古，周</t>
   </si>
   <si>
@@ -244,15 +214,6 @@
 ②状態区分 は　'1'(登録済)　または　'3'(却下)</t>
   </si>
   <si>
-    <t>DA2004</t>
-  </si>
-  <si>
-    <t>却下実行</t>
-  </si>
-  <si>
-    <t>regect</t>
-  </si>
-  <si>
     <t>更新対象テーブル：
 資材マスタ
 更新箇所：
@@ -263,12 +224,6 @@
 ②状態区分 =　'1'(登録済)</t>
   </si>
   <si>
-    <t>DA3001</t>
-  </si>
-  <si>
-    <t>部署リスト取得</t>
-  </si>
-  <si>
     <t>OrderDeliverDao.xml</t>
   </si>
   <si>
@@ -281,51 +236,13 @@
     <t>勃，胡</t>
   </si>
   <si>
-    <t>抽出項目：
-　　＊（全て）
-抽出元：
-　　部署マスタ
-抽出条件：
-　　なし</t>
-  </si>
-  <si>
-    <t>DA3002</t>
-  </si>
-  <si>
-    <t>承認済資材取得(部署別)</t>
-  </si>
-  <si>
     <t>approvaledList</t>
   </si>
   <si>
     <t>String 部署ID</t>
   </si>
   <si>
-    <t>DA3003</t>
-  </si>
-  <si>
-    <t>発注済資材取得(部署別)</t>
-  </si>
-  <si>
     <t>orderedList</t>
-  </si>
-  <si>
-    <t>DA3004</t>
-  </si>
-  <si>
-    <t>発注実行</t>
-  </si>
-  <si>
-    <t>orderAct</t>
-  </si>
-  <si>
-    <t>DA3005</t>
-  </si>
-  <si>
-    <t>納品実行</t>
-  </si>
-  <si>
-    <t>deleverAct</t>
   </si>
   <si>
     <t>更新対象テーブル：
@@ -798,12 +715,113 @@
 S.資材ID ＝ 引数.資材ID</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>DA2001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部門別購入依頼一覧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA2002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA2003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認実行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA2004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>却下実行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getDeptRequsetList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>approval</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>regect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrderDeliverDao.xml</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA3001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部署リスト取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA3002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認済資材取得(部署別)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA3003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発注済資材取得(部署別)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA3004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発注実行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA3005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品実行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orderAct</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>deleverAct</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抽出項目：
+　　＊（全て）
+抽出元：
+　　部署マスタ
+抽出条件：
+　　なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -944,7 +962,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,12 +977,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1268,18 +1286,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
-    <col min="2" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,18 +1318,18 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1321,8 +1339,8 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1332,10 +1350,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1343,8 +1361,8 @@
       <c r="F4" s="10"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -1352,8 +1370,8 @@
       <c r="F5" s="10"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1361,8 +1379,8 @@
       <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1370,8 +1388,8 @@
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1379,8 +1397,8 @@
       <c r="F8" s="10"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1388,8 +1406,8 @@
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1397,8 +1415,8 @@
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1406,8 +1424,8 @@
       <c r="F11" s="10"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1415,8 +1433,8 @@
       <c r="F12" s="10"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1424,8 +1442,8 @@
       <c r="F13" s="10"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1433,8 +1451,8 @@
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1442,8 +1460,8 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1451,8 +1469,8 @@
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1460,8 +1478,8 @@
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1469,8 +1487,8 @@
       <c r="F18" s="10"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1478,8 +1496,8 @@
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1487,8 +1505,8 @@
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1496,8 +1514,8 @@
       <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1505,7 +1523,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,18 +1544,18 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>95</v>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
@@ -1547,8 +1565,8 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1558,8 +1576,8 @@
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6"/>
       <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
@@ -1569,8 +1587,8 @@
       <c r="F26" s="10"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1578,8 +1596,8 @@
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1587,8 +1605,8 @@
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1596,8 +1614,8 @@
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1605,8 +1623,8 @@
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1614,8 +1632,8 @@
       <c r="F31" s="10"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1623,7 +1641,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1644,18 +1662,18 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>91</v>
+    <row r="34" spans="1:7" ht="43.5" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -1665,8 +1683,8 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
         <v>10</v>
       </c>
@@ -1676,10 +1694,10 @@
       <c r="F35" s="8"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6"/>
       <c r="B36" s="9" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1687,8 +1705,8 @@
       <c r="F36" s="10"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1696,8 +1714,8 @@
       <c r="F37" s="10"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1705,8 +1723,8 @@
       <c r="F38" s="10"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1714,8 +1732,8 @@
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -1723,8 +1741,8 @@
       <c r="F40" s="10"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="6"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1732,8 +1750,8 @@
       <c r="F41" s="10"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1741,8 +1759,8 @@
       <c r="F42" s="10"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1750,8 +1768,8 @@
       <c r="F43" s="10"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="6"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1759,8 +1777,8 @@
       <c r="F44" s="10"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -1768,8 +1786,8 @@
       <c r="F45" s="10"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1777,8 +1795,8 @@
       <c r="F46" s="10"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1786,8 +1804,8 @@
       <c r="F47" s="10"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1795,8 +1813,8 @@
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1804,8 +1822,8 @@
       <c r="F49" s="10"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1813,8 +1831,8 @@
       <c r="F50" s="10"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1822,8 +1840,8 @@
       <c r="F51" s="10"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1831,8 +1849,8 @@
       <c r="F52" s="10"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -1840,8 +1858,8 @@
       <c r="F53" s="10"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
+    <row r="54" spans="1:7">
+      <c r="A54" s="6"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1849,8 +1867,8 @@
       <c r="F54" s="10"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="6"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -1858,8 +1876,8 @@
       <c r="F55" s="10"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
+    <row r="56" spans="1:7">
+      <c r="A56" s="6"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -1867,8 +1885,8 @@
       <c r="F56" s="10"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="6"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -1876,8 +1894,8 @@
       <c r="F57" s="10"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
+    <row r="58" spans="1:7">
+      <c r="A58" s="6"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -1885,8 +1903,8 @@
       <c r="F58" s="10"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -1894,8 +1912,8 @@
       <c r="F59" s="10"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
+    <row r="60" spans="1:7">
+      <c r="A60" s="6"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -1903,8 +1921,8 @@
       <c r="F60" s="10"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
+    <row r="61" spans="1:7">
+      <c r="A61" s="6"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -1912,8 +1930,8 @@
       <c r="F61" s="10"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
+    <row r="62" spans="1:7">
+      <c r="A62" s="6"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -1921,8 +1939,8 @@
       <c r="F62" s="10"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="6"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -1930,8 +1948,8 @@
       <c r="F63" s="10"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -1939,8 +1957,8 @@
       <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -1948,8 +1966,8 @@
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -1957,8 +1975,8 @@
       <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -1966,8 +1984,8 @@
       <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
+    <row r="68" spans="1:7">
+      <c r="A68" s="6"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -1975,8 +1993,8 @@
       <c r="F68" s="10"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="11"/>
+    <row r="69" spans="1:7">
+      <c r="A69" s="6"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -1984,8 +2002,8 @@
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
+    <row r="70" spans="1:7">
+      <c r="A70" s="6"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -1993,8 +2011,8 @@
       <c r="F70" s="10"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
+    <row r="71" spans="1:7">
+      <c r="A71" s="6"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2002,8 +2020,8 @@
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
+    <row r="72" spans="1:7">
+      <c r="A72" s="6"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2011,7 +2029,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2030,29 +2048,29 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>98</v>
+    <row r="74" spans="1:7">
+      <c r="A74" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="11"/>
+    <row r="75" spans="1:7">
+      <c r="A75" s="6"/>
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -2062,10 +2080,10 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
+    <row r="76" spans="1:7">
+      <c r="A76" s="6"/>
       <c r="B76" s="9" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2073,8 +2091,8 @@
       <c r="F76" s="10"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="11"/>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6"/>
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -2082,8 +2100,8 @@
       <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="6"/>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -2091,8 +2109,8 @@
       <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6"/>
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -2100,8 +2118,8 @@
       <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
+    <row r="80" spans="1:7">
+      <c r="A80" s="6"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -2109,8 +2127,8 @@
       <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="11"/>
+    <row r="81" spans="1:7">
+      <c r="A81" s="6"/>
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -2118,8 +2136,8 @@
       <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
+    <row r="82" spans="1:7">
+      <c r="A82" s="6"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -2127,8 +2145,8 @@
       <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
+    <row r="83" spans="1:7">
+      <c r="A83" s="6"/>
       <c r="B83" s="9"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -2136,8 +2154,8 @@
       <c r="F83" s="10"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -2145,8 +2163,8 @@
       <c r="F84" s="10"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="11"/>
+    <row r="85" spans="1:7">
+      <c r="A85" s="6"/>
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -2154,8 +2172,8 @@
       <c r="F85" s="10"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
+    <row r="86" spans="1:7">
+      <c r="A86" s="6"/>
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -2163,8 +2181,8 @@
       <c r="F86" s="10"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="11"/>
+    <row r="87" spans="1:7">
+      <c r="A87" s="6"/>
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -2172,8 +2190,8 @@
       <c r="F87" s="10"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
+    <row r="88" spans="1:7">
+      <c r="A88" s="6"/>
       <c r="B88" s="9"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -2181,8 +2199,8 @@
       <c r="F88" s="10"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="11"/>
+    <row r="89" spans="1:7">
+      <c r="A89" s="6"/>
       <c r="B89" s="9"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -2190,8 +2208,8 @@
       <c r="F89" s="10"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
+    <row r="90" spans="1:7">
+      <c r="A90" s="6"/>
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -2199,8 +2217,8 @@
       <c r="F90" s="10"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="11"/>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6"/>
       <c r="B91" s="9"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -2208,8 +2226,8 @@
       <c r="F91" s="10"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="11"/>
+    <row r="92" spans="1:7">
+      <c r="A92" s="6"/>
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -2217,8 +2235,8 @@
       <c r="F92" s="10"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
+    <row r="93" spans="1:7">
+      <c r="A93" s="6"/>
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -2226,8 +2244,8 @@
       <c r="F93" s="10"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
+    <row r="94" spans="1:7">
+      <c r="A94" s="6"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -2235,8 +2253,8 @@
       <c r="F94" s="10"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
+    <row r="95" spans="1:7">
+      <c r="A95" s="6"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -2244,8 +2262,8 @@
       <c r="F95" s="10"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
+    <row r="96" spans="1:7">
+      <c r="A96" s="6"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -2253,8 +2271,8 @@
       <c r="F96" s="10"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
+    <row r="97" spans="1:7">
+      <c r="A97" s="6"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -2262,8 +2280,8 @@
       <c r="F97" s="10"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
+    <row r="98" spans="1:7">
+      <c r="A98" s="6"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -2271,8 +2289,8 @@
       <c r="F98" s="10"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
+    <row r="99" spans="1:7">
+      <c r="A99" s="6"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -2280,8 +2298,8 @@
       <c r="F99" s="10"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
+    <row r="100" spans="1:7">
+      <c r="A100" s="6"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -2289,8 +2307,8 @@
       <c r="F100" s="10"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
+    <row r="101" spans="1:7">
+      <c r="A101" s="6"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -2298,8 +2316,8 @@
       <c r="F101" s="10"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
+    <row r="102" spans="1:7">
+      <c r="A102" s="6"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -2307,8 +2325,8 @@
       <c r="F102" s="10"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="11"/>
+    <row r="103" spans="1:7">
+      <c r="A103" s="6"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -2316,8 +2334,8 @@
       <c r="F103" s="10"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="11"/>
+    <row r="104" spans="1:7">
+      <c r="A104" s="6"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -2325,8 +2343,8 @@
       <c r="F104" s="10"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="11"/>
+    <row r="105" spans="1:7">
+      <c r="A105" s="6"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -2334,7 +2352,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,29 +2373,29 @@
       </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>101</v>
+    <row r="107" spans="1:7">
+      <c r="A107" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="11"/>
+    <row r="108" spans="1:7">
+      <c r="A108" s="6"/>
       <c r="B108" s="8" t="s">
         <v>10</v>
       </c>
@@ -2387,10 +2405,10 @@
       <c r="F108" s="8"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="11"/>
+    <row r="109" spans="1:7">
+      <c r="A109" s="6"/>
       <c r="B109" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -2398,8 +2416,8 @@
       <c r="F109" s="10"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="11"/>
+    <row r="110" spans="1:7">
+      <c r="A110" s="6"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -2407,8 +2425,8 @@
       <c r="F110" s="10"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="11"/>
+    <row r="111" spans="1:7">
+      <c r="A111" s="6"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -2416,8 +2434,8 @@
       <c r="F111" s="10"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="11"/>
+    <row r="112" spans="1:7">
+      <c r="A112" s="6"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -2425,8 +2443,8 @@
       <c r="F112" s="10"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="11"/>
+    <row r="113" spans="1:7">
+      <c r="A113" s="6"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -2434,8 +2452,8 @@
       <c r="F113" s="10"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="11"/>
+    <row r="114" spans="1:7">
+      <c r="A114" s="6"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -2443,8 +2461,8 @@
       <c r="F114" s="10"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="11"/>
+    <row r="115" spans="1:7">
+      <c r="A115" s="6"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -2452,8 +2470,8 @@
       <c r="F115" s="10"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="11"/>
+    <row r="116" spans="1:7">
+      <c r="A116" s="6"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -2461,8 +2479,8 @@
       <c r="F116" s="10"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="11"/>
+    <row r="117" spans="1:7">
+      <c r="A117" s="6"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -2470,8 +2488,8 @@
       <c r="F117" s="10"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="11"/>
+    <row r="118" spans="1:7">
+      <c r="A118" s="6"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -2479,8 +2497,8 @@
       <c r="F118" s="10"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="11"/>
+    <row r="119" spans="1:7">
+      <c r="A119" s="6"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -2488,8 +2506,8 @@
       <c r="F119" s="10"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="11"/>
+    <row r="120" spans="1:7">
+      <c r="A120" s="6"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -2497,8 +2515,8 @@
       <c r="F120" s="10"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="11"/>
+    <row r="121" spans="1:7">
+      <c r="A121" s="6"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -2506,8 +2524,8 @@
       <c r="F121" s="10"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="11"/>
+    <row r="122" spans="1:7">
+      <c r="A122" s="6"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
@@ -2515,8 +2533,8 @@
       <c r="F122" s="10"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="11"/>
+    <row r="123" spans="1:7">
+      <c r="A123" s="6"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -2524,8 +2542,8 @@
       <c r="F123" s="10"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="11"/>
+    <row r="124" spans="1:7">
+      <c r="A124" s="6"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -2533,7 +2551,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -2554,29 +2572,29 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>104</v>
+    <row r="126" spans="1:7">
+      <c r="A126" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="11"/>
+    <row r="127" spans="1:7">
+      <c r="A127" s="6"/>
       <c r="B127" s="8" t="s">
         <v>10</v>
       </c>
@@ -2586,10 +2604,10 @@
       <c r="F127" s="8"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="11"/>
+    <row r="128" spans="1:7">
+      <c r="A128" s="6"/>
       <c r="B128" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -2597,8 +2615,8 @@
       <c r="F128" s="10"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="11"/>
+    <row r="129" spans="1:7">
+      <c r="A129" s="6"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
@@ -2606,8 +2624,8 @@
       <c r="F129" s="10"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="11"/>
+    <row r="130" spans="1:7">
+      <c r="A130" s="6"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -2615,8 +2633,8 @@
       <c r="F130" s="10"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="11"/>
+    <row r="131" spans="1:7">
+      <c r="A131" s="6"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -2624,8 +2642,8 @@
       <c r="F131" s="10"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="11"/>
+    <row r="132" spans="1:7">
+      <c r="A132" s="6"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -2633,8 +2651,8 @@
       <c r="F132" s="10"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="11"/>
+    <row r="133" spans="1:7">
+      <c r="A133" s="6"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -2642,8 +2660,8 @@
       <c r="F133" s="10"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="11"/>
+    <row r="134" spans="1:7">
+      <c r="A134" s="6"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -2651,8 +2669,8 @@
       <c r="F134" s="10"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="11"/>
+    <row r="135" spans="1:7">
+      <c r="A135" s="6"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -2662,6 +2680,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="G107:G124"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F124"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="G126:G135"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F135"/>
+    <mergeCell ref="A34:A72"/>
+    <mergeCell ref="G34:G72"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F72"/>
+    <mergeCell ref="A74:A105"/>
+    <mergeCell ref="G74:G105"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F105"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="G2:G22"/>
     <mergeCell ref="B3:F3"/>
@@ -2670,26 +2704,10 @@
     <mergeCell ref="G24:G32"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F32"/>
-    <mergeCell ref="A34:A72"/>
-    <mergeCell ref="G34:G72"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F72"/>
-    <mergeCell ref="A74:A105"/>
-    <mergeCell ref="G74:G105"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F105"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="G107:G124"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F124"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="G126:G135"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F135"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2697,18 +2715,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J7:J8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="6" width="19.88671875" customWidth="1"/>
+    <col min="2" max="6" width="19.83203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2731,30 +2749,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="58.5" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -2765,10 +2783,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2776,7 +2794,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2785,7 +2803,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2794,7 +2812,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="6"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2803,7 +2821,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="6"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2812,7 +2830,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2821,7 +2839,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2830,7 +2848,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2839,7 +2857,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2848,7 +2866,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2857,7 +2875,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2866,7 +2884,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2875,7 +2893,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2884,7 +2902,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2893,7 +2911,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="6"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2902,7 +2920,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2911,7 +2929,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="6"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2920,7 +2938,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="6"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2929,7 +2947,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="6"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2938,7 +2956,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="6"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2947,7 +2965,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="6"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2956,7 +2974,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="6"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2965,7 +2983,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="6"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2974,7 +2992,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="6"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2983,7 +3001,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="6"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2992,7 +3010,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="6"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3001,7 +3019,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="6"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3010,7 +3028,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="6"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3019,7 +3037,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="6"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3028,7 +3046,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="6"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3037,7 +3055,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="6"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3046,7 +3064,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -3055,7 +3073,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="6"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3064,7 +3082,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="6"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3073,7 +3091,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="6"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3082,7 +3100,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="6"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3091,7 +3109,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="6"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3100,7 +3118,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3123,30 +3141,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="6" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
         <v>10</v>
@@ -3157,10 +3175,10 @@
       <c r="F43" s="8"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="6"/>
       <c r="B44" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -3168,7 +3186,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="6"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -3177,7 +3195,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="6"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
@@ -3186,7 +3204,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="6"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
@@ -3195,7 +3213,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="6"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -3204,7 +3222,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="6"/>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
@@ -3213,7 +3231,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="6"/>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
@@ -3222,7 +3240,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="6"/>
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
@@ -3231,7 +3249,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="6"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
@@ -3240,7 +3258,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="6"/>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
@@ -3249,7 +3267,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="6"/>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -3258,7 +3276,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="6"/>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
@@ -3267,7 +3285,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="6"/>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
@@ -3276,7 +3294,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="6"/>
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
@@ -3285,7 +3303,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="6"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -3294,7 +3312,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="6"/>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
@@ -3303,7 +3321,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="6"/>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
@@ -3312,7 +3330,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="6"/>
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
@@ -3321,7 +3339,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="6"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -3330,7 +3348,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="6"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -3339,7 +3357,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="6"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -3348,7 +3366,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="6"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -3357,7 +3375,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="6"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -3366,7 +3384,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="6"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -3375,7 +3393,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="6"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -3384,7 +3402,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="6"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -3393,7 +3411,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="6"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3402,7 +3420,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="6"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -3411,7 +3429,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="6"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -3420,7 +3438,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="6"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3429,7 +3447,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -3452,30 +3470,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="6" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="6"/>
       <c r="B76" s="8" t="s">
         <v>10</v>
@@ -3486,10 +3504,10 @@
       <c r="F76" s="8"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="6"/>
       <c r="B77" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -3497,7 +3515,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="6"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -3506,7 +3524,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="6"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3515,7 +3533,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="6"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3524,7 +3542,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="6"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3533,7 +3551,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="6"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -3542,7 +3560,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="6"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3551,7 +3569,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="6"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3560,7 +3578,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="6"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -3569,7 +3587,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="6"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3578,7 +3596,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="6"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3587,7 +3605,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3610,30 +3628,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="6" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="6"/>
       <c r="B90" s="8" t="s">
         <v>10</v>
@@ -3644,10 +3662,10 @@
       <c r="F90" s="8"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="6"/>
       <c r="B91" s="9" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -3655,7 +3673,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="6"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3664,7 +3682,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="6"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -3673,7 +3691,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="6"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -3682,7 +3700,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="6"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -3691,7 +3709,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="6"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -3700,7 +3718,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="6"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -3709,7 +3727,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="6"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -3718,7 +3736,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="6"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3727,7 +3745,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="6"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3736,7 +3754,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="6"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3747,6 +3765,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:A87"/>
+    <mergeCell ref="G75:G87"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F87"/>
+    <mergeCell ref="A89:A101"/>
+    <mergeCell ref="G89:G101"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F101"/>
     <mergeCell ref="A2:A40"/>
     <mergeCell ref="G2:G40"/>
     <mergeCell ref="B3:F3"/>
@@ -3755,14 +3781,6 @@
     <mergeCell ref="G42:G73"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:F73"/>
-    <mergeCell ref="A75:A87"/>
-    <mergeCell ref="G75:G87"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F87"/>
-    <mergeCell ref="A89:A101"/>
-    <mergeCell ref="G89:G101"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F101"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3774,17 +3792,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:F110"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3807,31 +3825,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
+    <row r="2" spans="1:7" ht="22" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3841,10 +3859,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3852,8 +3870,8 @@
       <c r="F4" s="10"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -3861,8 +3879,8 @@
       <c r="F5" s="10"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3870,8 +3888,8 @@
       <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -3879,8 +3897,8 @@
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -3888,8 +3906,8 @@
       <c r="F8" s="10"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3897,8 +3915,8 @@
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -3906,7 +3924,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3929,31 +3947,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>49</v>
+    <row r="12" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -3963,10 +3981,10 @@
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
       <c r="B14" s="9" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3974,8 +3992,8 @@
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3983,8 +4001,8 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -3992,8 +4010,8 @@
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4001,8 +4019,8 @@
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -4010,8 +4028,8 @@
       <c r="F18" s="10"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -4019,8 +4037,8 @@
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -4028,8 +4046,8 @@
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -4037,8 +4055,8 @@
       <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -4046,8 +4064,8 @@
       <c r="F22" s="10"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -4055,8 +4073,8 @@
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -4064,8 +4082,8 @@
       <c r="F24" s="10"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -4073,8 +4091,8 @@
       <c r="F25" s="10"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -4082,8 +4100,8 @@
       <c r="F26" s="10"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4091,8 +4109,8 @@
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -4100,8 +4118,8 @@
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -4109,8 +4127,8 @@
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -4118,8 +4136,8 @@
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -4127,8 +4145,8 @@
       <c r="F31" s="10"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -4136,8 +4154,8 @@
       <c r="F32" s="10"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="11"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -4145,8 +4163,8 @@
       <c r="F33" s="10"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="11"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -4154,8 +4172,8 @@
       <c r="F34" s="10"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="11"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -4163,8 +4181,8 @@
       <c r="F35" s="10"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -4172,8 +4190,8 @@
       <c r="F36" s="10"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -4181,8 +4199,8 @@
       <c r="F37" s="10"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -4190,8 +4208,8 @@
       <c r="F38" s="10"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="11"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -4199,8 +4217,8 @@
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -4208,8 +4226,8 @@
       <c r="F40" s="10"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="11"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -4217,8 +4235,8 @@
       <c r="F41" s="10"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="11"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -4226,8 +4244,8 @@
       <c r="F42" s="10"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="11"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -4235,8 +4253,8 @@
       <c r="F43" s="10"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="11"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -4244,8 +4262,8 @@
       <c r="F44" s="10"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="11"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -4253,8 +4271,8 @@
       <c r="F45" s="10"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="11"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -4262,8 +4280,8 @@
       <c r="F46" s="10"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="11"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -4271,8 +4289,8 @@
       <c r="F47" s="10"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="11"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -4280,8 +4298,8 @@
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="11"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -4289,8 +4307,8 @@
       <c r="F49" s="10"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="11"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -4298,8 +4316,8 @@
       <c r="F50" s="10"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="11"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -4307,8 +4325,8 @@
       <c r="F51" s="10"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="11"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -4316,8 +4334,8 @@
       <c r="F52" s="10"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="11"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -4325,7 +4343,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -4348,31 +4366,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>53</v>
+    <row r="55" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="11"/>
       <c r="B56" s="8" t="s">
         <v>10</v>
       </c>
@@ -4382,10 +4400,10 @@
       <c r="F56" s="8"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="11"/>
       <c r="B57" s="9" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4393,8 +4411,8 @@
       <c r="F57" s="10"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
+    <row r="58" spans="1:7">
+      <c r="A58" s="11"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -4402,8 +4420,8 @@
       <c r="F58" s="10"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -4411,8 +4429,8 @@
       <c r="F59" s="10"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
+    <row r="60" spans="1:7">
+      <c r="A60" s="11"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -4420,8 +4438,8 @@
       <c r="F60" s="10"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+    <row r="61" spans="1:7">
+      <c r="A61" s="11"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -4429,8 +4447,8 @@
       <c r="F61" s="10"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
+    <row r="62" spans="1:7">
+      <c r="A62" s="11"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -4438,8 +4456,8 @@
       <c r="F62" s="10"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="11"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -4447,8 +4465,8 @@
       <c r="F63" s="10"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="11"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -4456,8 +4474,8 @@
       <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
+    <row r="65" spans="1:7">
+      <c r="A65" s="11"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -4465,8 +4483,8 @@
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="11"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -4474,8 +4492,8 @@
       <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+    <row r="67" spans="1:7">
+      <c r="A67" s="11"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -4483,8 +4501,8 @@
       <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
+    <row r="68" spans="1:7">
+      <c r="A68" s="11"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -4492,8 +4510,8 @@
       <c r="F68" s="10"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
+    <row r="69" spans="1:7">
+      <c r="A69" s="11"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4501,8 +4519,8 @@
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+    <row r="70" spans="1:7">
+      <c r="A70" s="11"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -4510,8 +4528,8 @@
       <c r="F70" s="10"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
+    <row r="71" spans="1:7">
+      <c r="A71" s="11"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -4519,8 +4537,8 @@
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
+    <row r="72" spans="1:7">
+      <c r="A72" s="11"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -4528,8 +4546,8 @@
       <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
+    <row r="73" spans="1:7">
+      <c r="A73" s="11"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -4537,8 +4555,8 @@
       <c r="F73" s="10"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
+    <row r="74" spans="1:7">
+      <c r="A74" s="11"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -4546,8 +4564,8 @@
       <c r="F74" s="10"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
+    <row r="75" spans="1:7">
+      <c r="A75" s="11"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -4555,8 +4573,8 @@
       <c r="F75" s="10"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
+    <row r="76" spans="1:7">
+      <c r="A76" s="11"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -4564,8 +4582,8 @@
       <c r="F76" s="10"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
+    <row r="77" spans="1:7">
+      <c r="A77" s="11"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -4573,8 +4591,8 @@
       <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="11"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -4582,8 +4600,8 @@
       <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
+    <row r="79" spans="1:7">
+      <c r="A79" s="11"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -4591,8 +4609,8 @@
       <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
+    <row r="80" spans="1:7">
+      <c r="A80" s="11"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -4600,8 +4618,8 @@
       <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+    <row r="81" spans="1:7">
+      <c r="A81" s="11"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -4609,8 +4627,8 @@
       <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+    <row r="82" spans="1:7">
+      <c r="A82" s="11"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -4618,8 +4636,8 @@
       <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
+    <row r="83" spans="1:7">
+      <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -4627,8 +4645,8 @@
       <c r="F83" s="10"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
+    <row r="84" spans="1:7">
+      <c r="A84" s="11"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -4636,8 +4654,8 @@
       <c r="F84" s="10"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
+    <row r="85" spans="1:7">
+      <c r="A85" s="11"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -4645,8 +4663,8 @@
       <c r="F85" s="10"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
+    <row r="86" spans="1:7">
+      <c r="A86" s="11"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -4654,8 +4672,8 @@
       <c r="F86" s="10"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
+    <row r="87" spans="1:7">
+      <c r="A87" s="11"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -4663,8 +4681,8 @@
       <c r="F87" s="10"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
+    <row r="88" spans="1:7">
+      <c r="A88" s="11"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -4672,8 +4690,8 @@
       <c r="F88" s="10"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
+    <row r="89" spans="1:7">
+      <c r="A89" s="11"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -4681,8 +4699,8 @@
       <c r="F89" s="10"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
+    <row r="90" spans="1:7">
+      <c r="A90" s="11"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -4690,8 +4708,8 @@
       <c r="F90" s="10"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
+    <row r="91" spans="1:7">
+      <c r="A91" s="11"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -4699,8 +4717,8 @@
       <c r="F91" s="10"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
+    <row r="92" spans="1:7">
+      <c r="A92" s="11"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -4708,8 +4726,8 @@
       <c r="F92" s="10"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
+    <row r="93" spans="1:7">
+      <c r="A93" s="11"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -4717,8 +4735,8 @@
       <c r="F93" s="10"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
+    <row r="94" spans="1:7">
+      <c r="A94" s="11"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -4726,8 +4744,8 @@
       <c r="F94" s="10"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
+    <row r="95" spans="1:7">
+      <c r="A95" s="11"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -4735,8 +4753,8 @@
       <c r="F95" s="10"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
+    <row r="96" spans="1:7">
+      <c r="A96" s="11"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -4744,7 +4762,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -4767,31 +4785,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>56</v>
+    <row r="98" spans="1:7">
+      <c r="A98" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="11"/>
       <c r="B99" s="8" t="s">
         <v>10</v>
       </c>
@@ -4801,10 +4819,10 @@
       <c r="F99" s="8"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
+    <row r="100" spans="1:7">
+      <c r="A100" s="11"/>
       <c r="B100" s="9" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -4812,8 +4830,8 @@
       <c r="F100" s="10"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
+    <row r="101" spans="1:7">
+      <c r="A101" s="11"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -4821,8 +4839,8 @@
       <c r="F101" s="10"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
+    <row r="102" spans="1:7">
+      <c r="A102" s="11"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -4830,8 +4848,8 @@
       <c r="F102" s="10"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
+    <row r="103" spans="1:7">
+      <c r="A103" s="11"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -4839,8 +4857,8 @@
       <c r="F103" s="10"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
+    <row r="104" spans="1:7">
+      <c r="A104" s="11"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -4848,8 +4866,8 @@
       <c r="F104" s="10"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
+    <row r="105" spans="1:7">
+      <c r="A105" s="11"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -4857,8 +4875,8 @@
       <c r="F105" s="10"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
+    <row r="106" spans="1:7">
+      <c r="A106" s="11"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -4866,8 +4884,8 @@
       <c r="F106" s="10"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
+    <row r="107" spans="1:7">
+      <c r="A107" s="11"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -4875,8 +4893,8 @@
       <c r="F107" s="10"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
+    <row r="108" spans="1:7">
+      <c r="A108" s="11"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
@@ -4884,8 +4902,8 @@
       <c r="F108" s="10"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
+    <row r="109" spans="1:7">
+      <c r="A109" s="11"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -4893,8 +4911,8 @@
       <c r="F109" s="10"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
+    <row r="110" spans="1:7">
+      <c r="A110" s="11"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -4902,7 +4920,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -4925,31 +4943,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>59</v>
+    <row r="112" spans="1:7">
+      <c r="A112" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="11"/>
       <c r="B113" s="8" t="s">
         <v>10</v>
       </c>
@@ -4959,10 +4977,10 @@
       <c r="F113" s="8"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
+    <row r="114" spans="1:7">
+      <c r="A114" s="11"/>
       <c r="B114" s="9" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -4970,8 +4988,8 @@
       <c r="F114" s="10"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="6"/>
+    <row r="115" spans="1:7">
+      <c r="A115" s="11"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -4979,8 +4997,8 @@
       <c r="F115" s="10"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
+    <row r="116" spans="1:7">
+      <c r="A116" s="11"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -4988,8 +5006,8 @@
       <c r="F116" s="10"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
+    <row r="117" spans="1:7">
+      <c r="A117" s="11"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -4997,8 +5015,8 @@
       <c r="F117" s="10"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="6"/>
+    <row r="118" spans="1:7">
+      <c r="A118" s="11"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -5006,8 +5024,8 @@
       <c r="F118" s="10"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
+    <row r="119" spans="1:7">
+      <c r="A119" s="11"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -5015,8 +5033,8 @@
       <c r="F119" s="10"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="6"/>
+    <row r="120" spans="1:7">
+      <c r="A120" s="11"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -5024,8 +5042,8 @@
       <c r="F120" s="10"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="6"/>
+    <row r="121" spans="1:7">
+      <c r="A121" s="11"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -5033,8 +5051,8 @@
       <c r="F121" s="10"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="6"/>
+    <row r="122" spans="1:7">
+      <c r="A122" s="11"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
@@ -5042,8 +5060,8 @@
       <c r="F122" s="10"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="6"/>
+    <row r="123" spans="1:7">
+      <c r="A123" s="11"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -5051,8 +5069,8 @@
       <c r="F123" s="10"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="6"/>
+    <row r="124" spans="1:7">
+      <c r="A124" s="11"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -5062,14 +5080,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F10"/>
-    <mergeCell ref="A12:A53"/>
-    <mergeCell ref="G12:G53"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F53"/>
     <mergeCell ref="A112:A124"/>
     <mergeCell ref="G112:G124"/>
     <mergeCell ref="B113:F113"/>
@@ -5082,6 +5092,14 @@
     <mergeCell ref="G98:G110"/>
     <mergeCell ref="B99:F99"/>
     <mergeCell ref="B100:F110"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F10"/>
+    <mergeCell ref="A12:A53"/>
+    <mergeCell ref="G12:G53"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5097,12 +5115,12 @@
       <selection activeCell="B4" sqref="B4:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="6" width="22.77734375" customWidth="1"/>
+    <col min="2" max="6" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5125,31 +5143,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>63</v>
+    <row r="2" spans="1:7" ht="23.5" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -5159,10 +5177,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
       <c r="B4" s="9" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5170,8 +5188,8 @@
       <c r="F4" s="10"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -5179,8 +5197,8 @@
       <c r="F5" s="10"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -5188,8 +5206,8 @@
       <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -5197,8 +5215,8 @@
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -5206,8 +5224,8 @@
       <c r="F8" s="10"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -5215,8 +5233,8 @@
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -5224,8 +5242,8 @@
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5233,8 +5251,8 @@
       <c r="F11" s="10"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -5242,8 +5260,8 @@
       <c r="F12" s="10"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5251,8 +5269,8 @@
       <c r="F13" s="10"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -5260,8 +5278,8 @@
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -5269,8 +5287,8 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -5278,8 +5296,8 @@
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -5287,8 +5305,8 @@
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -5296,8 +5314,8 @@
       <c r="F18" s="10"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -5305,8 +5323,8 @@
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -5314,8 +5332,8 @@
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -5323,8 +5341,8 @@
       <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -5332,8 +5350,8 @@
       <c r="F22" s="10"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -5341,8 +5359,8 @@
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -5350,8 +5368,8 @@
       <c r="F24" s="10"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -5359,8 +5377,8 @@
       <c r="F25" s="10"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -5368,8 +5386,8 @@
       <c r="F26" s="10"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -5377,8 +5395,8 @@
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -5386,8 +5404,8 @@
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -5395,8 +5413,8 @@
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -5404,8 +5422,8 @@
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5413,8 +5431,8 @@
       <c r="F31" s="10"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -5422,8 +5440,8 @@
       <c r="F32" s="10"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="11"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -5431,8 +5449,8 @@
       <c r="F33" s="10"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="11"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -5440,8 +5458,8 @@
       <c r="F34" s="10"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="11"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -5449,8 +5467,8 @@
       <c r="F35" s="10"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -5458,8 +5476,8 @@
       <c r="F36" s="10"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -5467,8 +5485,8 @@
       <c r="F37" s="10"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -5476,8 +5494,8 @@
       <c r="F38" s="10"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="11"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -5485,8 +5503,8 @@
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -5494,8 +5512,8 @@
       <c r="F40" s="10"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="11"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -5503,7 +5521,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -5526,31 +5544,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>68</v>
+    <row r="43" spans="1:7" ht="22" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="11"/>
       <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
@@ -5560,10 +5578,10 @@
       <c r="F44" s="8"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="11"/>
       <c r="B45" s="9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -5571,8 +5589,8 @@
       <c r="F45" s="10"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="11"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -5580,8 +5598,8 @@
       <c r="F46" s="10"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="11"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -5589,8 +5607,8 @@
       <c r="F47" s="10"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="11"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -5598,8 +5616,8 @@
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="11"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -5607,8 +5625,8 @@
       <c r="F49" s="10"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="11"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -5616,8 +5634,8 @@
       <c r="F50" s="10"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="11"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -5625,7 +5643,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -5648,31 +5666,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>73</v>
+    <row r="53" spans="1:7">
+      <c r="A53" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="11"/>
       <c r="B54" s="8" t="s">
         <v>10</v>
       </c>
@@ -5682,10 +5700,10 @@
       <c r="F54" s="8"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="11"/>
       <c r="B55" s="9" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -5693,8 +5711,8 @@
       <c r="F55" s="10"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
+    <row r="56" spans="1:7">
+      <c r="A56" s="11"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -5702,8 +5720,8 @@
       <c r="F56" s="10"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="11"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -5711,8 +5729,8 @@
       <c r="F57" s="10"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
+    <row r="58" spans="1:7">
+      <c r="A58" s="11"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -5720,8 +5738,8 @@
       <c r="F58" s="10"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -5729,8 +5747,8 @@
       <c r="F59" s="10"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
+    <row r="60" spans="1:7">
+      <c r="A60" s="11"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -5738,8 +5756,8 @@
       <c r="F60" s="10"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+    <row r="61" spans="1:7">
+      <c r="A61" s="11"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -5747,8 +5765,8 @@
       <c r="F61" s="10"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
+    <row r="62" spans="1:7">
+      <c r="A62" s="11"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -5756,8 +5774,8 @@
       <c r="F62" s="10"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="11"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -5765,8 +5783,8 @@
       <c r="F63" s="10"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="11"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -5774,8 +5792,8 @@
       <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
+    <row r="65" spans="1:7">
+      <c r="A65" s="11"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -5783,8 +5801,8 @@
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="11"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -5792,8 +5810,8 @@
       <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+    <row r="67" spans="1:7">
+      <c r="A67" s="11"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -5801,7 +5819,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -5824,31 +5842,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>76</v>
+    <row r="69" spans="1:7">
+      <c r="A69" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="11"/>
       <c r="B70" s="8" t="s">
         <v>10</v>
       </c>
@@ -5858,10 +5876,10 @@
       <c r="F70" s="8"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
+    <row r="71" spans="1:7">
+      <c r="A71" s="11"/>
       <c r="B71" s="9" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -5869,8 +5887,8 @@
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
+    <row r="72" spans="1:7">
+      <c r="A72" s="11"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -5878,8 +5896,8 @@
       <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
+    <row r="73" spans="1:7">
+      <c r="A73" s="11"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -5887,8 +5905,8 @@
       <c r="F73" s="10"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
+    <row r="74" spans="1:7">
+      <c r="A74" s="11"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -5896,8 +5914,8 @@
       <c r="F74" s="10"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
+    <row r="75" spans="1:7">
+      <c r="A75" s="11"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -5905,8 +5923,8 @@
       <c r="F75" s="10"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
+    <row r="76" spans="1:7">
+      <c r="A76" s="11"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -5914,8 +5932,8 @@
       <c r="F76" s="10"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
+    <row r="77" spans="1:7">
+      <c r="A77" s="11"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -5923,8 +5941,8 @@
       <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="11"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -5932,8 +5950,8 @@
       <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
+    <row r="79" spans="1:7">
+      <c r="A79" s="11"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -5941,8 +5959,8 @@
       <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
+    <row r="80" spans="1:7">
+      <c r="A80" s="11"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -5950,8 +5968,8 @@
       <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+    <row r="81" spans="1:7">
+      <c r="A81" s="11"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -5959,8 +5977,8 @@
       <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+    <row r="82" spans="1:7">
+      <c r="A82" s="11"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -5968,8 +5986,8 @@
       <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
+    <row r="83" spans="1:7">
+      <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -5979,6 +5997,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="G53:G67"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F67"/>
+    <mergeCell ref="A69:A83"/>
+    <mergeCell ref="G69:G83"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F83"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="G2:G41"/>
     <mergeCell ref="B3:F3"/>
@@ -5987,17 +6013,9 @@
     <mergeCell ref="G43:G51"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B45:F51"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="G53:G67"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F67"/>
-    <mergeCell ref="A69:A83"/>
-    <mergeCell ref="G69:G83"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F83"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait"/>
 </worksheet>
 </file>
--- a/text/機能設計書_データアクセス.xlsx
+++ b/text/機能設計書_データアクセス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiao/Desktop/java/git-demo/text/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4220AC-D38C-C147-8511-66A9B0230012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF367434-B962-4F16-9B96-6C892018002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20920" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DA定義_購入依頼" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="109">
   <si>
     <t>番号</t>
   </si>
@@ -255,28 +255,10 @@
 ②状態区分　= '4'(発注済)</t>
   </si>
   <si>
-    <t>DA4001</t>
-  </si>
-  <si>
-    <t>資材情報一件取得</t>
-  </si>
-  <si>
     <t>StoreDao.xml</t>
   </si>
   <si>
-    <t>getSizaiById</t>
-  </si>
-  <si>
     <t>王，李</t>
-  </si>
-  <si>
-    <t>DA4002</t>
-  </si>
-  <si>
-    <t>倉庫情報取得</t>
-  </si>
-  <si>
-    <t>getSoukoList</t>
   </si>
   <si>
     <t>倉庫DTOリスト</t>
@@ -288,35 +270,6 @@
 　　倉庫マスタ
 抽出条件：
 　　なし</t>
-  </si>
-  <si>
-    <t>DA4003</t>
-  </si>
-  <si>
-    <t>入庫実行</t>
-  </si>
-  <si>
-    <t>inStoreAct</t>
-  </si>
-  <si>
-    <t>DA4004</t>
-  </si>
-  <si>
-    <t>出庫実行</t>
-  </si>
-  <si>
-    <t>outStoreAct</t>
-  </si>
-  <si>
-    <t>更新対象テーブル：
-資材マスタ
-更新箇所：
-状態区分　＝　'7'(出庫済)
-出庫日　＝　sysdate
-更新条件：
-①資材ID　=　資材DTO.資材ID
-AND
-②状態区分　= '5'(入庫済)</t>
   </si>
   <si>
     <t>BuyApprovalDao.xml</t>
@@ -816,12 +769,76 @@
 　　なし</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>StoreDao.xml</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA4001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資材情報一件取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA4002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>倉庫情報取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA4003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫実行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DA4004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出庫実行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getSizaiById</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getSoukoList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>inStoreAct</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>outStoreAct</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新対象テーブル：
+資材マスタ
+更新箇所：
+状態区分　＝　'7'(出庫済)
+出庫日　＝　sysdate
+更新条件：
+①資材ID　=　資材DTO.資材ID
+AND
+②状態区分　= '6'(入庫済)</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -982,7 +999,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1286,18 +1303,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,18 +1335,18 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1339,7 +1356,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -1350,10 +1367,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1361,7 +1378,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1370,7 +1387,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1379,7 +1396,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1388,7 +1405,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1397,7 +1414,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1406,7 +1423,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1415,7 +1432,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1424,7 +1441,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1433,7 +1450,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1442,7 +1459,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1451,7 +1468,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1460,7 +1477,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1469,7 +1486,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1478,7 +1495,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1487,7 +1504,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1496,7 +1513,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1505,7 +1522,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1514,7 +1531,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1523,7 +1540,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1544,18 +1561,18 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
@@ -1565,7 +1582,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
         <v>10</v>
@@ -1576,7 +1593,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="9" t="s">
         <v>12</v>
@@ -1587,7 +1604,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1596,7 +1613,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1605,7 +1622,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1614,7 +1631,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1623,7 +1640,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1632,7 +1649,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1641,7 +1658,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,18 +1679,18 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="43.5" customHeight="1">
+    <row r="34" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
@@ -1683,7 +1700,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
         <v>10</v>
@@ -1694,10 +1711,10 @@
       <c r="F35" s="8"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1705,7 +1722,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1714,7 +1731,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1723,7 +1740,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1732,7 +1749,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1741,7 +1758,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1750,7 +1767,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1759,7 +1776,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1768,7 +1785,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1777,7 +1794,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1786,7 +1803,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1795,7 +1812,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1804,7 +1821,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1813,7 +1830,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1822,7 +1839,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1831,7 +1848,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1840,7 +1857,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1849,7 +1866,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1858,7 +1875,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1867,7 +1884,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1876,7 +1893,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1885,7 +1902,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1894,7 +1911,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1903,7 +1920,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1912,7 +1929,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1921,7 +1938,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1930,7 +1947,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1939,7 +1956,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1948,7 +1965,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1957,7 +1974,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1966,7 +1983,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1975,7 +1992,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1984,7 +2001,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1993,7 +2010,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -2002,7 +2019,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -2011,7 +2028,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -2020,7 +2037,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -2029,7 +2046,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2048,18 +2065,18 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>15</v>
@@ -2069,7 +2086,7 @@
       </c>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="8" t="s">
         <v>10</v>
@@ -2080,10 +2097,10 @@
       <c r="F75" s="8"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2091,7 +2108,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
@@ -2100,7 +2117,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
@@ -2109,7 +2126,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
@@ -2118,7 +2135,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
@@ -2127,7 +2144,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
@@ -2136,7 +2153,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
@@ -2145,7 +2162,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="9"/>
       <c r="C83" s="10"/>
@@ -2154,7 +2171,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
@@ -2163,7 +2180,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
@@ -2172,7 +2189,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
@@ -2181,7 +2198,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
@@ -2190,7 +2207,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="9"/>
       <c r="C88" s="10"/>
@@ -2199,7 +2216,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="9"/>
       <c r="C89" s="10"/>
@@ -2208,7 +2225,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
@@ -2217,7 +2234,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="9"/>
       <c r="C91" s="10"/>
@@ -2226,7 +2243,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
@@ -2235,7 +2252,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
@@ -2244,7 +2261,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -2253,7 +2270,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -2262,7 +2279,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -2271,7 +2288,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -2280,7 +2297,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -2289,7 +2306,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -2298,7 +2315,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -2307,7 +2324,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -2316,7 +2333,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -2325,7 +2342,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -2334,7 +2351,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -2343,7 +2360,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -2352,7 +2369,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -2373,18 +2390,18 @@
       </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -2394,7 +2411,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="8" t="s">
         <v>10</v>
@@ -2405,7 +2422,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="9" t="s">
         <v>18</v>
@@ -2416,7 +2433,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -2425,7 +2442,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -2434,7 +2451,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -2443,7 +2460,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -2452,7 +2469,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -2461,7 +2478,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -2470,7 +2487,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -2479,7 +2496,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -2488,7 +2505,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -2497,7 +2514,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -2506,7 +2523,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -2515,7 +2532,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -2524,7 +2541,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -2533,7 +2550,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -2542,7 +2559,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -2551,7 +2568,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -2572,18 +2589,18 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>19</v>
@@ -2593,7 +2610,7 @@
       </c>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="8" t="s">
         <v>10</v>
@@ -2604,7 +2621,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="9" t="s">
         <v>21</v>
@@ -2615,7 +2632,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -2624,7 +2641,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -2633,7 +2650,7 @@
       <c r="F130" s="10"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -2642,7 +2659,7 @@
       <c r="F131" s="10"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -2651,7 +2668,7 @@
       <c r="F132" s="10"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -2660,7 +2677,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -2669,7 +2686,7 @@
       <c r="F134" s="10"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -2680,6 +2697,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="G2:G22"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F22"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="G24:G32"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F32"/>
+    <mergeCell ref="A34:A72"/>
+    <mergeCell ref="G34:G72"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F72"/>
+    <mergeCell ref="A74:A105"/>
+    <mergeCell ref="G74:G105"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F105"/>
     <mergeCell ref="A107:A124"/>
     <mergeCell ref="G107:G124"/>
     <mergeCell ref="B108:F108"/>
@@ -2688,22 +2721,6 @@
     <mergeCell ref="G126:G135"/>
     <mergeCell ref="B127:F127"/>
     <mergeCell ref="B128:F135"/>
-    <mergeCell ref="A34:A72"/>
-    <mergeCell ref="G34:G72"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F72"/>
-    <mergeCell ref="A74:A105"/>
-    <mergeCell ref="G74:G105"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F105"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="G2:G22"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F22"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2715,18 +2732,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="6" width="19.83203125" customWidth="1"/>
+    <col min="2" max="6" width="19.77734375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2749,18 +2766,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58.5" customHeight="1">
+    <row r="2" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>22</v>
@@ -2772,7 +2789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -2783,7 +2800,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
         <v>25</v>
@@ -2794,7 +2811,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2803,7 +2820,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2812,7 +2829,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2821,7 +2838,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2830,7 +2847,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2839,7 +2856,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2848,7 +2865,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2857,7 +2874,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2866,7 +2883,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2875,7 +2892,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2884,7 +2901,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2893,7 +2910,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2902,7 +2919,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2911,7 +2928,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2920,7 +2937,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2929,7 +2946,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2938,7 +2955,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2947,7 +2964,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2956,7 +2973,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2965,7 +2982,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2974,7 +2991,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2983,7 +3000,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2992,7 +3009,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3001,7 +3018,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3010,7 +3027,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3019,7 +3036,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3028,7 +3045,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3037,7 +3054,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3046,7 +3063,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3055,7 +3072,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3064,7 +3081,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -3073,7 +3090,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3082,7 +3099,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3091,7 +3108,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3100,7 +3117,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3109,7 +3126,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3118,7 +3135,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -3141,18 +3158,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -3164,7 +3181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
         <v>10</v>
@@ -3175,7 +3192,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="9" t="s">
         <v>16</v>
@@ -3186,7 +3203,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -3195,7 +3212,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
@@ -3204,7 +3221,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
@@ -3213,7 +3230,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -3222,7 +3239,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
@@ -3231,7 +3248,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
@@ -3240,7 +3257,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
@@ -3249,7 +3266,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
@@ -3258,7 +3275,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
@@ -3267,7 +3284,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -3276,7 +3293,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
@@ -3285,7 +3302,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
@@ -3294,7 +3311,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
@@ -3303,7 +3320,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -3312,7 +3329,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
@@ -3321,7 +3338,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
@@ -3330,7 +3347,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
@@ -3339,7 +3356,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -3348,7 +3365,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -3357,7 +3374,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -3366,7 +3383,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -3375,7 +3392,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -3384,7 +3401,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -3393,7 +3410,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -3402,7 +3419,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -3411,7 +3428,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3420,7 +3437,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -3429,7 +3446,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -3438,7 +3455,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3447,7 +3464,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -3470,18 +3487,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
@@ -3493,7 +3510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="8" t="s">
         <v>10</v>
@@ -3504,7 +3521,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="9" t="s">
         <v>27</v>
@@ -3515,7 +3532,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -3524,7 +3541,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3533,7 +3550,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3542,7 +3559,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3551,7 +3568,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -3560,7 +3577,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3569,7 +3586,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3578,7 +3595,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -3587,7 +3604,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3596,7 +3613,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3605,7 +3622,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -3628,18 +3645,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>19</v>
@@ -3651,7 +3668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="8" t="s">
         <v>10</v>
@@ -3662,7 +3679,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="9" t="s">
         <v>28</v>
@@ -3673,7 +3690,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3682,7 +3699,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -3691,7 +3708,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -3700,7 +3717,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -3709,7 +3726,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -3718,7 +3735,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -3727,7 +3744,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -3736,7 +3753,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3745,7 +3762,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3754,7 +3771,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -3765,6 +3782,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="G2:G40"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F40"/>
+    <mergeCell ref="A42:A73"/>
+    <mergeCell ref="G42:G73"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F73"/>
     <mergeCell ref="A75:A87"/>
     <mergeCell ref="G75:G87"/>
     <mergeCell ref="B76:F76"/>
@@ -3773,14 +3798,6 @@
     <mergeCell ref="G89:G101"/>
     <mergeCell ref="B90:F90"/>
     <mergeCell ref="B91:F101"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="G2:G40"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F40"/>
-    <mergeCell ref="A42:A73"/>
-    <mergeCell ref="G42:G73"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F73"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3792,17 +3809,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:F96"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3825,15 +3842,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22" customHeight="1">
+    <row r="2" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>30</v>
@@ -3848,7 +3865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -3859,10 +3876,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3870,7 +3887,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3879,7 +3896,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3888,7 +3905,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3897,7 +3914,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3906,7 +3923,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3915,7 +3932,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3924,7 +3941,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3947,15 +3964,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="23.5" customHeight="1">
+    <row r="12" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
@@ -3970,7 +3987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
@@ -3981,10 +3998,10 @@
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3992,7 +4009,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4001,7 +4018,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4010,7 +4027,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4019,7 +4036,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4028,7 +4045,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4037,7 +4054,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4046,7 +4063,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4055,7 +4072,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4064,7 +4081,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4073,7 +4090,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4082,7 +4099,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4091,7 +4108,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4100,7 +4117,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4109,7 +4126,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4118,7 +4135,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4127,7 +4144,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4136,7 +4153,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4145,7 +4162,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4154,7 +4171,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4163,7 +4180,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4172,7 +4189,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4181,7 +4198,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4190,7 +4207,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4199,7 +4216,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4208,7 +4225,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4217,7 +4234,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4226,7 +4243,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4235,7 +4252,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4244,7 +4261,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4253,7 +4270,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4262,7 +4279,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4271,7 +4288,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4280,7 +4297,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4289,7 +4306,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4298,7 +4315,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4307,7 +4324,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4316,7 +4333,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4325,7 +4342,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4334,7 +4351,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4343,7 +4360,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -4366,12 +4383,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="23.5" customHeight="1">
+    <row r="55" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>29</v>
@@ -4389,7 +4406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="8" t="s">
         <v>10</v>
@@ -4400,10 +4417,10 @@
       <c r="F56" s="8"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4411,7 +4428,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4420,7 +4437,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4429,7 +4446,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4438,7 +4455,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4447,7 +4464,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4456,7 +4473,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4465,7 +4482,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4474,7 +4491,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4483,7 +4500,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4492,7 +4509,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -4501,7 +4518,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -4510,7 +4527,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -4519,7 +4536,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -4528,7 +4545,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -4537,7 +4554,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -4546,7 +4563,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -4555,7 +4572,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -4564,7 +4581,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -4573,7 +4590,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -4582,7 +4599,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4591,7 +4608,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4600,7 +4617,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4609,7 +4626,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -4618,7 +4635,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4627,7 +4644,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -4636,7 +4653,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -4645,7 +4662,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -4654,7 +4671,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -4663,7 +4680,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4672,7 +4689,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4681,7 +4698,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -4690,7 +4707,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -4699,7 +4716,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4708,7 +4725,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4717,7 +4734,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="11"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4726,7 +4743,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="11"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4735,7 +4752,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="11"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4744,7 +4761,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="11"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4753,7 +4770,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="11"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4762,7 +4779,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -4785,18 +4802,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>19</v>
@@ -4808,7 +4825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="11"/>
       <c r="B99" s="8" t="s">
         <v>10</v>
@@ -4819,10 +4836,10 @@
       <c r="F99" s="8"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="11"/>
       <c r="B100" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -4830,7 +4847,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4839,7 +4856,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="11"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4848,7 +4865,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="11"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -4857,7 +4874,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4866,7 +4883,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="11"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -4875,7 +4892,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="11"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -4884,7 +4901,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="11"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -4893,7 +4910,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -4902,7 +4919,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -4911,7 +4928,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -4920,7 +4937,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -4943,18 +4960,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>19</v>
@@ -4966,7 +4983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="11"/>
       <c r="B113" s="8" t="s">
         <v>10</v>
@@ -4977,7 +4994,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="11"/>
       <c r="B114" s="9" t="s">
         <v>36</v>
@@ -4988,7 +5005,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -4997,7 +5014,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5006,7 +5023,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="11"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5015,7 +5032,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="11"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -5024,7 +5041,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="11"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -5033,7 +5050,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="11"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -5042,7 +5059,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="11"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -5051,7 +5068,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="11"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -5060,7 +5077,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="11"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5069,7 +5086,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="11"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -5080,6 +5097,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F10"/>
+    <mergeCell ref="A12:A53"/>
+    <mergeCell ref="G12:G53"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F53"/>
     <mergeCell ref="A112:A124"/>
     <mergeCell ref="G112:G124"/>
     <mergeCell ref="B113:F113"/>
@@ -5092,14 +5117,6 @@
     <mergeCell ref="G98:G110"/>
     <mergeCell ref="B99:F99"/>
     <mergeCell ref="B100:F110"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F10"/>
-    <mergeCell ref="A12:A53"/>
-    <mergeCell ref="G12:G53"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5111,16 +5128,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F41"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="22.83203125" customWidth="1"/>
+    <col min="2" max="6" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5143,18 +5160,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23.5" customHeight="1">
+    <row r="2" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>19</v>
@@ -5163,10 +5180,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -5177,10 +5194,10 @@
       <c r="F3" s="8"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5188,7 +5205,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5197,7 +5214,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -5206,7 +5223,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5215,7 +5232,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5224,7 +5241,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5233,7 +5250,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5242,7 +5259,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5251,7 +5268,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5260,7 +5277,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5269,7 +5286,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5278,7 +5295,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5287,7 +5304,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -5296,7 +5313,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5305,7 +5322,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5314,7 +5331,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5323,7 +5340,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -5332,7 +5349,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5341,7 +5358,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5350,7 +5367,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5359,7 +5376,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5368,7 +5385,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -5377,7 +5394,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5386,7 +5403,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -5395,7 +5412,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5404,7 +5421,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5413,7 +5430,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5422,7 +5439,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5431,7 +5448,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5440,7 +5457,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5449,7 +5466,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -5458,7 +5475,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -5467,7 +5484,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5476,7 +5493,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5485,7 +5502,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5494,7 +5511,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5503,7 +5520,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5512,7 +5529,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -5521,7 +5538,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -5544,30 +5561,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="22" customHeight="1">
+    <row r="43" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="8" t="s">
         <v>10</v>
@@ -5578,10 +5595,10 @@
       <c r="F44" s="8"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -5589,7 +5606,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5598,7 +5615,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5607,7 +5624,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5616,7 +5633,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5625,7 +5642,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5634,7 +5651,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5643,7 +5660,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -5666,18 +5683,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
@@ -5686,10 +5703,10 @@
         <v>17</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="8" t="s">
         <v>10</v>
@@ -5700,10 +5717,10 @@
       <c r="F54" s="8"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -5711,7 +5728,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5720,7 +5737,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5729,7 +5746,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5738,7 +5755,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5747,7 +5764,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -5756,7 +5773,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5765,7 +5782,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5774,7 +5791,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5783,7 +5800,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5792,7 +5809,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5801,7 +5818,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5810,7 +5827,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5819,7 +5836,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -5842,18 +5859,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -5862,10 +5879,10 @@
         <v>17</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="8" t="s">
         <v>10</v>
@@ -5876,10 +5893,10 @@
       <c r="F70" s="8"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="B71" s="9" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -5887,7 +5904,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5896,7 +5913,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5905,7 +5922,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5914,7 +5931,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5923,7 +5940,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5932,7 +5949,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5941,7 +5958,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5950,7 +5967,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5959,7 +5976,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5968,7 +5985,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5977,7 +5994,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5986,7 +6003,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5997,6 +6014,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="G2:G41"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F41"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="G43:G51"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F51"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="G53:G67"/>
     <mergeCell ref="B54:F54"/>
@@ -6005,14 +6030,6 @@
     <mergeCell ref="G69:G83"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F83"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="G2:G41"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F41"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="G43:G51"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F51"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
